--- a/export/export_files/Action Target NRA EIC ESilhouette Combat Target/Action Target NRA EIC ESilhouet.xlsx
+++ b/export/export_files/Action Target NRA EIC ESilhouette Combat Target/Action Target NRA EIC ESilhouet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,10 +448,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.pelicansalessupply.com/products/action-target-nra-eic-e-silhouette-combat-target?srsltid=AfmBOoo7ovcTAadd_mZ050k_1WjWAGJ7LUf6P1CYw2b71Az0Tr5Tcfu1</t>
+          <t>https://www.pelicansalessupply.com/products/action-target-nra-eic-e-silhouette-combat-target-66295?srsltid=AfmBOoo1yNGiWqB4P4UTNRJMMxbY2maIYtn8ExcuvZy5iDU7cSwkSb-7</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
+        <is>
+          <t>64.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.bestwarehouseparts.com/product/action-target-nra-eic-e-silhouette-combat-target/</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>68.39</t>
         </is>
